--- a/biology/Histoire de la zoologie et de la botanique/Alexander_Whyte/Alexander_Whyte.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexander_Whyte/Alexander_Whyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Whyte est un naturaliste et un explorateur britannique, né en 1834 et mort en 1908.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce membre de la Société linnéenne de Londres est le naturaliste attaché au territoire du Nyasaland (aujourd’hui Malawi). Il y réalise une importante collection sous la direction de Sir Harry Hamilton Johnston (1858-1927). Les plantes qu’il récolte sont notamment utilisées par James Britten (1846-1924) et Edmund Gilbert Baker (1864-1949) dans The Plants of Milanji, Nyasa-Land, collected by Mr. A. Whyte ... and described by Messrs. Britten, E. G. Baker, etc. (1894) et les mammifères sont décrits par Michael Rogers Oldfield Thomas (1858-1929) dans On the mammals obtained by Mr. A Whyte in Nyasaland, and presented to the British Museum by Sir H.H. Johnston (1897). Il récolte également 430 spécimens d’oiseaux appartenant à 134 espèces dont 12 nouvelles pour la science.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Bo Beolens et Michael Watkins, Whose Bird? Common Bird Names and the People They Commemorate, New Haven et Londres, Yale University Press, 2003, 400 p. (ISBN 0-300-10359-X).
 Maurice Boubier, L’Évolution de l’ornithologie, Paris, Alcan, coll. « Nouvelle collection scientifique », 1925, ii + 308</t>
